--- a/ApiTestCases.xlsx
+++ b/ApiTestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
   <si>
     <t>Testing SWAPI (Resources: People, Planets, and Starships)</t>
   </si>
@@ -265,6 +265,27 @@
   </si>
   <si>
     <t>Testing Weather Asana API</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/api/1.0/workspaces</t>
+  </si>
+  <si>
+    <t>I should be able to Get the ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearer Token </t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/api/1.0/workspaces/1199384918286066/tasks</t>
+  </si>
+  <si>
+    <t>It Shall create the post request and return some data in the response body.</t>
+  </si>
+  <si>
+    <t>201 Created</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -412,7 +433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -427,10 +448,6 @@
       <sz val="14.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <color theme="1"/>
@@ -453,9 +470,6 @@
     </font>
     <font>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -463,14 +477,6 @@
       <sz val="9.0"/>
       <color rgb="FF505050"/>
       <name val="OpenSans"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -487,6 +493,13 @@
       <sz val="9.0"/>
       <color rgb="FF505050"/>
       <name val="OpenSans"/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
@@ -691,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -701,188 +714,182 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="12" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="12" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1173,10 +1180,10 @@
       <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1184,10 +1191,10 @@
       <c r="A4" s="4">
         <v>2.0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1199,10 +1206,10 @@
       <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1210,10 +1217,10 @@
       <c r="A5" s="4">
         <v>3.0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1225,10 +1232,10 @@
       <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1236,10 +1243,10 @@
       <c r="A6" s="4">
         <v>4.0</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1251,10 +1258,10 @@
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1262,10 +1269,10 @@
       <c r="A7" s="4">
         <v>5.0</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1277,10 +1284,10 @@
       <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1288,10 +1295,10 @@
       <c r="A8" s="4">
         <v>6.0</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1303,10 +1310,10 @@
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1314,10 +1321,10 @@
       <c r="A9" s="4">
         <v>7.0</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1329,10 +1336,10 @@
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1340,10 +1347,10 @@
       <c r="A10" s="4">
         <v>8.0</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1355,10 +1362,10 @@
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1366,10 +1373,10 @@
       <c r="A11" s="4">
         <v>9.0</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1381,10 +1388,10 @@
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1392,10 +1399,10 @@
       <c r="A12" s="4">
         <v>10.0</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1407,10 +1414,10 @@
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1418,16 +1425,16 @@
       <c r="A13" s="4">
         <v>11.0</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1436,7 +1443,7 @@
       <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1444,16 +1451,16 @@
       <c r="A14" s="4">
         <v>12.0</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1462,7 +1469,7 @@
       <c r="G14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1470,16 +1477,16 @@
       <c r="A15" s="4">
         <v>13.0</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1488,7 +1495,7 @@
       <c r="G15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1496,16 +1503,16 @@
       <c r="A16" s="4">
         <v>14.0</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1514,7 +1521,7 @@
       <c r="G16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1522,16 +1529,16 @@
       <c r="A17" s="4">
         <v>15.0</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1540,7 +1547,7 @@
       <c r="G17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1617,7 +1624,7 @@
       <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1625,13 +1632,13 @@
       <c r="A3" s="4">
         <v>1.0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1643,7 +1650,7 @@
       <c r="G3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1651,16 +1658,16 @@
       <c r="A4" s="4">
         <v>2.0</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1669,7 +1676,7 @@
       <c r="G4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1677,16 +1684,16 @@
       <c r="A5" s="4">
         <v>3.0</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1695,7 +1702,7 @@
       <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1703,16 +1710,16 @@
       <c r="A6" s="4">
         <v>4.0</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1721,7 +1728,7 @@
       <c r="G6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1729,16 +1736,16 @@
       <c r="A7" s="4">
         <v>5.0</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1747,7 +1754,7 @@
       <c r="G7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1755,16 +1762,16 @@
       <c r="A8" s="4">
         <v>6.0</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1773,7 +1780,7 @@
       <c r="G8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1781,16 +1788,16 @@
       <c r="A9" s="4">
         <v>7.0</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1799,7 +1806,7 @@
       <c r="G9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1807,16 +1814,16 @@
       <c r="A10" s="4">
         <v>8.0</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1825,7 +1832,7 @@
       <c r="G10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1833,16 +1840,16 @@
       <c r="A11" s="4">
         <v>9.0</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1851,7 +1858,7 @@
       <c r="G11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1859,16 +1866,16 @@
       <c r="A12" s="4">
         <v>10.0</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1877,7 +1884,7 @@
       <c r="G12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1885,16 +1892,16 @@
       <c r="A13" s="4">
         <v>11.0</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1903,7 +1910,7 @@
       <c r="G13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1911,16 +1918,16 @@
       <c r="A14" s="4">
         <v>12.0</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1929,7 +1936,7 @@
       <c r="G14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1937,16 +1944,16 @@
       <c r="A15" s="4">
         <v>13.0</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1955,7 +1962,7 @@
       <c r="G15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1963,16 +1970,16 @@
       <c r="A16" s="4">
         <v>14.0</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1981,7 +1988,7 @@
       <c r="G16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1989,16 +1996,16 @@
       <c r="A17" s="4">
         <v>15.0</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -2007,7 +2014,7 @@
       <c r="G17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2035,6 +2042,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="18.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2045,7 +2055,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2054,13 +2064,13 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2071,36 +2081,64 @@
       <c r="A3" s="4">
         <v>1.0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>2.0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>3.0</v>
       </c>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6">
@@ -2108,11 +2146,11 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7">
@@ -2120,11 +2158,11 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8">
@@ -2132,11 +2170,11 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="23"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9">
@@ -2144,11 +2182,11 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="22"/>
     </row>
     <row r="10">
@@ -2156,11 +2194,11 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11">
@@ -2168,11 +2206,11 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12">
@@ -2180,11 +2218,11 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13">
@@ -2192,11 +2230,11 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14">
@@ -2204,11 +2242,11 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="23"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15">
@@ -2216,11 +2254,11 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16">
@@ -2228,11 +2266,11 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="22"/>
     </row>
     <row r="17">
@@ -2240,18 +2278,22 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C3"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2270,491 +2312,491 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="27"/>
+      <c r="A1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="33"/>
+      <c r="A2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="31"/>
     </row>
     <row r="3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5">
-      <c r="A5" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="43">
+      <c r="A5" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="41">
         <v>44199.0</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="33"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8">
-      <c r="A8" s="50">
+      <c r="A8" s="48">
         <v>1.0</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="52">
+      <c r="B8" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="50">
         <v>1.0</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9">
-      <c r="A9" s="50">
+      <c r="A9" s="48">
         <v>2.0</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="52">
+      <c r="B9" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="50">
         <v>2.0</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10">
-      <c r="A10" s="50">
+      <c r="A10" s="48">
         <v>3.0</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="52">
+      <c r="B10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="50">
         <v>3.0</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11">
-      <c r="A11" s="50">
+      <c r="A11" s="48">
         <v>4.0</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="52">
+      <c r="B11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="50">
         <v>4.0</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+      <c r="A13" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15">
-      <c r="A15" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="62"/>
+      <c r="A15" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="60"/>
     </row>
     <row r="16">
-      <c r="A16" s="64"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="33"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17">
-      <c r="A17" s="50">
+      <c r="A17" s="48">
         <v>1.0</v>
       </c>
-      <c r="B17" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="33"/>
+      <c r="B17" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18">
-      <c r="A18" s="50">
+      <c r="A18" s="48">
         <v>2.0</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="33"/>
+      <c r="B18" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19">
-      <c r="A19" s="50">
+      <c r="A19" s="48">
         <v>3.0</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="33"/>
+      <c r="B19" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20">
-      <c r="A20" s="50">
+      <c r="A20" s="48">
         <v>4.0</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="51" t="s">
+      <c r="B20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="33"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21">
-      <c r="A21" s="50">
+      <c r="A21" s="48">
         <v>5.0</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="33"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22">
-      <c r="A22" s="50">
+      <c r="A22" s="48">
         <v>6.0</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="33"/>
+      <c r="B22" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23">
-      <c r="A23" s="50">
+      <c r="A23" s="48">
         <v>7.0</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="33"/>
+      <c r="B23" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24">
-      <c r="A24" s="50">
+      <c r="A24" s="48">
         <v>8.0</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="33"/>
+      <c r="B24" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25">
-      <c r="A25" s="67">
+      <c r="A25" s="65">
         <v>9.0</v>
       </c>
-      <c r="B25" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="33"/>
+      <c r="B25" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="62">
